--- a/用例数据/期货市场/F市场/期货/T日/测试结果.xlsx
+++ b/用例数据/期货市场/F市场/期货/T日/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="futuretraderslt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17703" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17703" uniqueCount="1116">
   <si>
     <t>CUSTID</t>
   </si>
@@ -3366,6 +3366,10 @@
   </si>
   <si>
     <t>100294</t>
+  </si>
+  <si>
+    <t>DELIVERYDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3721,9 +3725,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3907,7 +3911,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -4183,7 +4187,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -4367,7 +4371,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -4551,7 +4555,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -4735,7 +4739,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -4827,7 +4831,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -4919,7 +4923,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -5011,7 +5015,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -5103,7 +5107,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -5195,7 +5199,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -5287,7 +5291,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -5379,7 +5383,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -5471,7 +5475,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -5563,7 +5567,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -5839,7 +5843,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -5931,7 +5935,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -6023,7 +6027,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -6207,7 +6211,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -6391,7 +6395,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -6483,7 +6487,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -6667,7 +6671,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -6759,7 +6763,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -6851,7 +6855,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -6943,7 +6947,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -7035,7 +7039,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -7127,7 +7131,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -7219,7 +7223,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -7403,7 +7407,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -7495,7 +7499,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -7587,7 +7591,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -7679,7 +7683,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -7863,7 +7867,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -7955,7 +7959,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -8047,7 +8051,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -8139,7 +8143,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -8231,7 +8235,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -8323,7 +8327,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -8415,7 +8419,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -8507,7 +8511,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
@@ -8599,7 +8603,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
@@ -8691,7 +8695,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>31</v>
       </c>
@@ -8875,7 +8879,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
@@ -8967,7 +8971,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
@@ -9059,7 +9063,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
@@ -9151,7 +9155,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>31</v>
       </c>
@@ -9243,7 +9247,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>31</v>
       </c>
@@ -9427,7 +9431,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
@@ -9519,7 +9523,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="64" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>31</v>
       </c>
@@ -9611,7 +9615,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>31</v>
       </c>
@@ -9703,7 +9707,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="66" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
@@ -9795,7 +9799,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>31</v>
       </c>
@@ -9887,7 +9891,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>31</v>
       </c>
@@ -9979,7 +9983,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>31</v>
       </c>
@@ -10071,7 +10075,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>31</v>
       </c>
@@ -10163,7 +10167,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
@@ -10255,7 +10259,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
@@ -10347,7 +10351,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>31</v>
       </c>
@@ -10439,7 +10443,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
@@ -10531,7 +10535,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -10623,7 +10627,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -10715,7 +10719,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
@@ -10807,7 +10811,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>31</v>
       </c>
@@ -10899,7 +10903,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>31</v>
       </c>
@@ -10991,7 +10995,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>31</v>
       </c>
@@ -11083,7 +11087,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>31</v>
       </c>
@@ -11175,7 +11179,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
@@ -11267,7 +11271,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
@@ -11359,7 +11363,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>31</v>
       </c>
@@ -11451,7 +11455,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>31</v>
       </c>
@@ -11543,7 +11547,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -11635,7 +11639,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="87" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>31</v>
       </c>
@@ -11727,7 +11731,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>31</v>
       </c>
@@ -11819,7 +11823,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>31</v>
       </c>
@@ -11911,7 +11915,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>31</v>
       </c>
@@ -12003,313 +12007,313 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12321,13 +12325,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="32" max="32" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -12425,7 +12433,7 @@
         <v>78</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>79</v>
+        <v>1115</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>80</v>
@@ -12497,7 +12505,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>838</v>
       </c>
@@ -12667,7 +12675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>838</v>
       </c>
@@ -12837,7 +12845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>838</v>
       </c>
@@ -13007,7 +13015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>838</v>
       </c>
@@ -13177,7 +13185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>838</v>
       </c>
@@ -13347,7 +13355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>838</v>
       </c>
@@ -13517,7 +13525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>838</v>
       </c>
@@ -13687,7 +13695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>838</v>
       </c>
@@ -13857,7 +13865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>838</v>
       </c>
@@ -14027,7 +14035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>838</v>
       </c>
@@ -14197,7 +14205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>838</v>
       </c>
@@ -14367,7 +14375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>838</v>
       </c>
@@ -14537,7 +14545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>838</v>
       </c>
@@ -14707,7 +14715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>838</v>
       </c>
@@ -14877,7 +14885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>838</v>
       </c>
@@ -15047,7 +15055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>838</v>
       </c>
@@ -15217,7 +15225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>838</v>
       </c>
@@ -15387,7 +15395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>838</v>
       </c>
@@ -15557,7 +15565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>838</v>
       </c>
@@ -15727,7 +15735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>838</v>
       </c>
@@ -15897,7 +15905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>838</v>
       </c>
@@ -16067,7 +16075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>838</v>
       </c>
@@ -16237,7 +16245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>838</v>
       </c>
@@ -16407,7 +16415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>838</v>
       </c>
@@ -16577,7 +16585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>838</v>
       </c>
@@ -16747,7 +16755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>838</v>
       </c>
@@ -16917,7 +16925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>838</v>
       </c>
@@ -17087,7 +17095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>838</v>
       </c>
@@ -17257,7 +17265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>838</v>
       </c>
@@ -17427,7 +17435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>838</v>
       </c>
@@ -17597,7 +17605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>838</v>
       </c>
@@ -17767,7 +17775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>838</v>
       </c>
@@ -17937,224 +17945,224 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18170,13 +18178,13 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -18292,7 +18300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>838</v>
       </c>
@@ -18402,7 +18410,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>838</v>
       </c>
@@ -18515,7 +18523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>838</v>
       </c>
@@ -18625,7 +18633,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>838</v>
       </c>
@@ -18735,7 +18743,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>838</v>
       </c>
@@ -18845,7 +18853,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>838</v>
       </c>
@@ -18955,7 +18963,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>838</v>
       </c>
@@ -19065,7 +19073,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>838</v>
       </c>
@@ -19175,7 +19183,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>838</v>
       </c>
@@ -19288,7 +19296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>838</v>
       </c>
@@ -19401,7 +19409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>838</v>
       </c>
@@ -19514,7 +19522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>838</v>
       </c>
@@ -19627,7 +19635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>838</v>
       </c>
@@ -19740,7 +19748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>838</v>
       </c>
@@ -19853,7 +19861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>838</v>
       </c>
@@ -19966,7 +19974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>838</v>
       </c>
@@ -20076,7 +20084,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>838</v>
       </c>
@@ -20186,7 +20194,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>838</v>
       </c>
@@ -20299,7 +20307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>838</v>
       </c>
@@ -20409,7 +20417,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>838</v>
       </c>
@@ -20522,7 +20530,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>838</v>
       </c>
@@ -20635,7 +20643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>838</v>
       </c>
@@ -20748,7 +20756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>838</v>
       </c>
@@ -20861,7 +20869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>838</v>
       </c>
@@ -20971,7 +20979,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="26" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>838</v>
       </c>
@@ -21084,7 +21092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>838</v>
       </c>
@@ -21194,7 +21202,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>838</v>
       </c>
@@ -21307,7 +21315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>838</v>
       </c>
@@ -21420,7 +21428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>838</v>
       </c>
@@ -21530,7 +21538,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="31" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>838</v>
       </c>
@@ -21643,7 +21651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>838</v>
       </c>
@@ -21753,7 +21761,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="33" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>838</v>
       </c>
@@ -21866,7 +21874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>838</v>
       </c>
@@ -21976,7 +21984,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="35" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>838</v>
       </c>
@@ -22089,7 +22097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>838</v>
       </c>
@@ -22202,7 +22210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>838</v>
       </c>
@@ -22315,7 +22323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>838</v>
       </c>
@@ -22425,7 +22433,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="39" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>838</v>
       </c>
@@ -22538,7 +22546,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>838</v>
       </c>
@@ -22651,7 +22659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>838</v>
       </c>
@@ -22764,7 +22772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>838</v>
       </c>
@@ -22874,7 +22882,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="43" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>838</v>
       </c>
@@ -22984,7 +22992,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>838</v>
       </c>
@@ -23094,7 +23102,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="45" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>838</v>
       </c>
@@ -23204,7 +23212,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>838</v>
       </c>
@@ -23314,7 +23322,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="47" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>838</v>
       </c>
@@ -23424,7 +23432,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="48" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>838</v>
       </c>
@@ -23537,7 +23545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>838</v>
       </c>
@@ -23650,7 +23658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>838</v>
       </c>
@@ -23763,7 +23771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>838</v>
       </c>
@@ -23873,7 +23881,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="52" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>838</v>
       </c>
@@ -23983,7 +23991,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="53" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>838</v>
       </c>
@@ -24096,7 +24104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>838</v>
       </c>
@@ -24209,7 +24217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>838</v>
       </c>
@@ -24319,7 +24327,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="56" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>838</v>
       </c>
@@ -24429,7 +24437,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="57" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>838</v>
       </c>
@@ -24539,7 +24547,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="58" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>838</v>
       </c>
@@ -24652,7 +24660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>838</v>
       </c>
@@ -24765,7 +24773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>838</v>
       </c>
@@ -24878,165 +24886,165 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25048,18 +25056,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -25370,7 +25379,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>990</v>
       </c>
@@ -25387,7 +25396,7 @@
         <v>992</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>765</v>
@@ -25633,7 +25642,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>995</v>
       </c>
@@ -25650,7 +25659,7 @@
         <v>992</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>767</v>
@@ -25896,7 +25905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>996</v>
       </c>
@@ -25913,7 +25922,7 @@
         <v>992</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>725</v>
@@ -26159,7 +26168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>925</v>
       </c>
@@ -26176,7 +26185,7 @@
         <v>992</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>689</v>
@@ -26422,7 +26431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>926</v>
       </c>
@@ -26439,7 +26448,7 @@
         <v>992</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>769</v>
@@ -26685,7 +26694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>927</v>
       </c>
@@ -26702,7 +26711,7 @@
         <v>992</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>729</v>
@@ -26948,7 +26957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>928</v>
       </c>
@@ -26965,7 +26974,7 @@
         <v>992</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>697</v>
@@ -27211,7 +27220,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>1002</v>
       </c>
@@ -27228,7 +27237,7 @@
         <v>992</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>701</v>
@@ -27474,7 +27483,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>1004</v>
       </c>
@@ -27491,7 +27500,7 @@
         <v>992</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>703</v>
@@ -27737,7 +27746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>809</v>
       </c>
@@ -27754,7 +27763,7 @@
         <v>992</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>771</v>
@@ -28000,7 +28009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>810</v>
       </c>
@@ -28017,7 +28026,7 @@
         <v>992</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>731</v>
@@ -28263,7 +28272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>811</v>
       </c>
@@ -28280,7 +28289,7 @@
         <v>992</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>773</v>
@@ -28526,7 +28535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>812</v>
       </c>
@@ -28543,7 +28552,7 @@
         <v>992</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>672</v>
@@ -28789,7 +28798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>931</v>
       </c>
@@ -28806,7 +28815,7 @@
         <v>992</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>675</v>
@@ -29052,7 +29061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>813</v>
       </c>
@@ -29069,7 +29078,7 @@
         <v>992</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>705</v>
@@ -29315,7 +29324,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>815</v>
       </c>
@@ -29332,7 +29341,7 @@
         <v>992</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>775</v>
@@ -29578,7 +29587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>1013</v>
       </c>
@@ -29595,7 +29604,7 @@
         <v>992</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>679</v>
@@ -29841,7 +29850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>1015</v>
       </c>
@@ -29858,7 +29867,7 @@
         <v>992</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>707</v>
@@ -30104,7 +30113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>1017</v>
       </c>
@@ -30121,7 +30130,7 @@
         <v>992</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>777</v>
@@ -30367,7 +30376,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>1019</v>
       </c>
@@ -30384,7 +30393,7 @@
         <v>992</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>709</v>
@@ -30630,7 +30639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>1021</v>
       </c>
@@ -30647,7 +30656,7 @@
         <v>992</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>713</v>
@@ -30893,7 +30902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>1023</v>
       </c>
@@ -31156,7 +31165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>817</v>
       </c>
@@ -31419,7 +31428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>818</v>
       </c>
@@ -31682,7 +31691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>819</v>
       </c>
@@ -31945,7 +31954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>820</v>
       </c>
@@ -31962,7 +31971,7 @@
         <v>992</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>721</v>
@@ -32208,7 +32217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>821</v>
       </c>
@@ -32225,7 +32234,7 @@
         <v>992</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>735</v>
@@ -32471,7 +32480,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>935</v>
       </c>
@@ -32488,7 +32497,7 @@
         <v>992</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>739</v>
@@ -32734,7 +32743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>936</v>
       </c>
@@ -32751,7 +32760,7 @@
         <v>992</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>743</v>
@@ -32997,7 +33006,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>937</v>
       </c>
@@ -33014,7 +33023,7 @@
         <v>992</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>747</v>
@@ -33260,7 +33269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>938</v>
       </c>
@@ -33277,7 +33286,7 @@
         <v>992</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>755</v>
@@ -33523,7 +33532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>939</v>
       </c>
@@ -33540,7 +33549,7 @@
         <v>992</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>763</v>
@@ -33786,7 +33795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>940</v>
       </c>
@@ -33803,7 +33812,7 @@
         <v>992</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>797</v>
@@ -34049,7 +34058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>822</v>
       </c>
@@ -34066,7 +34075,7 @@
         <v>992</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>787</v>
@@ -34312,7 +34321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>1039</v>
       </c>
@@ -34329,7 +34338,7 @@
         <v>992</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>799</v>
@@ -34575,7 +34584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>1041</v>
       </c>
@@ -34592,7 +34601,7 @@
         <v>992</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>803</v>
@@ -34838,7 +34847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>1043</v>
       </c>
@@ -34855,7 +34864,7 @@
         <v>992</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>805</v>
@@ -35101,7 +35110,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>1045</v>
       </c>
@@ -35118,7 +35127,7 @@
         <v>992</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>789</v>
@@ -35364,7 +35373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>1047</v>
       </c>
@@ -35381,7 +35390,7 @@
         <v>992</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>801</v>
@@ -35627,7 +35636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>1049</v>
       </c>
@@ -35644,7 +35653,7 @@
         <v>992</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>791</v>
@@ -35890,7 +35899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>1051</v>
       </c>
@@ -35907,7 +35916,7 @@
         <v>992</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>781</v>
@@ -36153,7 +36162,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>1053</v>
       </c>
@@ -36170,7 +36179,7 @@
         <v>992</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>785</v>
@@ -36416,7 +36425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>1055</v>
       </c>
@@ -36433,7 +36442,7 @@
         <v>992</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>795</v>
@@ -36679,7 +36688,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>959</v>
       </c>
@@ -36696,7 +36705,7 @@
         <v>1057</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>778</v>
@@ -36945,7 +36954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>1059</v>
       </c>
@@ -36962,7 +36971,7 @@
         <v>1057</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>710</v>
@@ -37211,7 +37220,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>1061</v>
       </c>
@@ -37228,7 +37237,7 @@
         <v>1057</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>726</v>
@@ -37477,7 +37486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>1063</v>
       </c>
@@ -37494,7 +37503,7 @@
         <v>1057</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>714</v>
@@ -37743,7 +37752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>1065</v>
       </c>
@@ -37760,7 +37769,7 @@
         <v>1057</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>716</v>
@@ -38009,7 +38018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>1067</v>
       </c>
@@ -38026,7 +38035,7 @@
         <v>1057</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>718</v>
@@ -38275,7 +38284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>1069</v>
       </c>
@@ -38292,7 +38301,7 @@
         <v>1057</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>692</v>
@@ -38541,7 +38550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>960</v>
       </c>
@@ -38558,7 +38567,7 @@
         <v>1057</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>694</v>
@@ -38807,7 +38816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>961</v>
       </c>
@@ -38824,7 +38833,7 @@
         <v>1057</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>690</v>
@@ -39073,7 +39082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>823</v>
       </c>
@@ -39090,7 +39099,7 @@
         <v>1057</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>676</v>
@@ -39339,7 +39348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>824</v>
       </c>
@@ -39356,7 +39365,7 @@
         <v>1057</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>676</v>
@@ -39605,7 +39614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>825</v>
       </c>
@@ -39622,7 +39631,7 @@
         <v>1057</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>676</v>
@@ -39871,7 +39880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>826</v>
       </c>
@@ -39888,7 +39897,7 @@
         <v>1057</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>698</v>
@@ -40137,7 +40146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>827</v>
       </c>
@@ -40154,7 +40163,7 @@
         <v>1057</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>698</v>
@@ -40403,7 +40412,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>828</v>
       </c>
@@ -40420,7 +40429,7 @@
         <v>1057</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>698</v>
@@ -40669,7 +40678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>829</v>
       </c>
@@ -40686,7 +40695,7 @@
         <v>1057</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>732</v>
@@ -40935,7 +40944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>830</v>
       </c>
@@ -40952,7 +40961,7 @@
         <v>1057</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>736</v>
@@ -41201,7 +41210,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>1077</v>
       </c>
@@ -41218,7 +41227,7 @@
         <v>1057</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>722</v>
@@ -41467,7 +41476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>1079</v>
       </c>
@@ -41484,7 +41493,7 @@
         <v>1057</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>744</v>
@@ -41733,7 +41742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>1081</v>
       </c>
@@ -41750,7 +41759,7 @@
         <v>1057</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>740</v>
@@ -41999,7 +42008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>1083</v>
       </c>
@@ -42016,7 +42025,7 @@
         <v>1057</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>756</v>
@@ -42265,7 +42274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>1085</v>
       </c>
@@ -42282,7 +42291,7 @@
         <v>1057</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>758</v>
@@ -42531,7 +42540,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>1087</v>
       </c>
@@ -42548,7 +42557,7 @@
         <v>1057</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>760</v>
@@ -42797,7 +42806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>1089</v>
       </c>
@@ -42814,7 +42823,7 @@
         <v>1057</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>748</v>
@@ -43063,7 +43072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>1091</v>
       </c>
@@ -43080,7 +43089,7 @@
         <v>1057</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>750</v>
@@ -43329,7 +43338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>1093</v>
       </c>
@@ -43346,7 +43355,7 @@
         <v>1057</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>752</v>
@@ -43595,7 +43604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>1095</v>
       </c>
@@ -43612,7 +43621,7 @@
         <v>1057</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>792</v>
@@ -43861,7 +43870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>1097</v>
       </c>
@@ -43878,7 +43887,7 @@
         <v>1057</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>792</v>
@@ -44127,7 +44136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>1098</v>
       </c>
@@ -44144,7 +44153,7 @@
         <v>1057</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>792</v>
@@ -44393,7 +44402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>1099</v>
       </c>
@@ -44410,7 +44419,7 @@
         <v>1057</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>782</v>
@@ -44659,7 +44668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>1101</v>
       </c>
@@ -44676,7 +44685,7 @@
         <v>1057</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>782</v>
@@ -44925,7 +44934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>1102</v>
       </c>
@@ -44942,7 +44951,7 @@
         <v>1057</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>34</v>
+        <v>837</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>782</v>
@@ -45191,7 +45200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>1103</v>
       </c>
@@ -45436,7 +45445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>1105</v>
       </c>
@@ -45681,7 +45690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>1106</v>
       </c>
@@ -45926,7 +45935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>1108</v>
       </c>
@@ -46171,7 +46180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>1109</v>
       </c>
@@ -46416,7 +46425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>1110</v>
       </c>
@@ -46661,7 +46670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>1111</v>
       </c>
@@ -46906,7 +46915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>962</v>
       </c>
@@ -47151,7 +47160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>965</v>
       </c>
@@ -47396,7 +47405,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>968</v>
       </c>
@@ -47641,7 +47650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>971</v>
       </c>
@@ -47886,7 +47895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>974</v>
       </c>
@@ -48131,7 +48140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>1113</v>
       </c>
@@ -48376,7 +48385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>1114</v>
       </c>
@@ -48621,7 +48630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>977</v>
       </c>
@@ -48866,7 +48875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>978</v>
       </c>
@@ -49111,7 +49120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>979</v>
       </c>
@@ -49356,7 +49365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>980</v>
       </c>
@@ -49601,7 +49610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>981</v>
       </c>
@@ -49846,7 +49855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>983</v>
       </c>
@@ -50091,7 +50100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>984</v>
       </c>
@@ -50336,7 +50345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>985</v>
       </c>
@@ -50581,7 +50590,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>986</v>
       </c>
@@ -50826,7 +50835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>987</v>
       </c>
@@ -51071,209 +51080,209 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51284,17 +51293,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.625" customWidth="1"/>
+    <col min="32" max="32" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -51461,7 +51472,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -51628,7 +51639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -51795,7 +51806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -51962,7 +51973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -52129,7 +52140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -52296,7 +52307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -52463,7 +52474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -52630,7 +52641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -52797,7 +52808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -52964,7 +52975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -53131,7 +53142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -53298,7 +53309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -53465,7 +53476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -53632,7 +53643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -53799,7 +53810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -53966,7 +53977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -54133,7 +54144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -54300,7 +54311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -54467,7 +54478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -54634,7 +54645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -54801,7 +54812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -54968,7 +54979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -55135,7 +55146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -55302,7 +55313,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -55469,120 +55480,120 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55598,13 +55609,13 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -55717,7 +55728,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -55824,7 +55835,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -55931,7 +55942,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -56038,7 +56049,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -56145,7 +56156,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -56252,7 +56263,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -56359,7 +56370,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -56466,7 +56477,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -56573,7 +56584,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -56680,7 +56691,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -56787,7 +56798,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -56894,7 +56905,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -57001,7 +57012,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -57108,7 +57119,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -57215,7 +57226,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -57322,7 +57333,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -57429,7 +57440,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -57536,7 +57547,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -57643,7 +57654,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -57750,7 +57761,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -57857,7 +57868,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -57964,7 +57975,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -58071,7 +58082,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -58178,7 +58189,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -58285,7 +58296,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -58392,7 +58403,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -58499,7 +58510,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -58606,129 +58617,129 @@
         <v>862</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
